--- a/excel-flash-fill-demo-start.xlsx
+++ b/excel-flash-fill-demo-start.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D414742-942A-47FE-97B8-6E9995532CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D43D7B-B35D-4680-BD58-87B6DE83AA4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{3A91FA8E-DBBB-4DDD-AE08-86B6284E8F36}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="13">
   <si>
     <t>John Doe</t>
   </si>
@@ -53,24 +53,12 @@
     <t>Michael Brown</t>
   </si>
   <si>
-    <t>(123) 456-7890</t>
-  </si>
-  <si>
-    <t>555-123-4567</t>
-  </si>
-  <si>
-    <t>(987) 654-3210</t>
-  </si>
-  <si>
     <t>Before</t>
   </si>
   <si>
     <t>After</t>
   </si>
   <si>
-    <t>15.01.2023</t>
-  </si>
-  <si>
     <t>1234 5678 9876 5432</t>
   </si>
   <si>
@@ -84,6 +72,21 @@
   </si>
   <si>
     <t>4444 3333 2222 1111</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Jane</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Mary</t>
+  </si>
+  <si>
+    <t>Michael</t>
   </si>
 </sst>
 </file>
@@ -465,11 +468,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2569D731-10AE-4004-8D98-C3DD5A483951}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
@@ -479,10 +482,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="13.15" customHeight="1" x14ac:dyDescent="0.65"/>
@@ -490,100 +493,123 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.65">
       <c r="A4" t="s">
         <v>1</v>
       </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.65">
       <c r="A5" t="s">
         <v>2</v>
       </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.65">
       <c r="A6" t="s">
         <v>3</v>
       </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.65">
       <c r="A7" t="s">
         <v>4</v>
       </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.65">
-      <c r="A9" t="s">
-        <v>5</v>
+      <c r="A9" s="2">
+        <v>44946</v>
+      </c>
+      <c r="B9">
+        <v>2023</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.65">
-      <c r="A10">
-        <v>9876543210</v>
+      <c r="A10" s="2">
+        <v>44576</v>
+      </c>
+      <c r="B10">
+        <v>2022</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.65">
-      <c r="A11" t="s">
-        <v>6</v>
+      <c r="A11" s="2">
+        <v>44625</v>
+      </c>
+      <c r="B11">
+        <v>2022</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.65">
-      <c r="A12" t="s">
+      <c r="A12" s="2">
+        <v>44985</v>
+      </c>
+      <c r="B12">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="A13" s="2">
+        <v>44365</v>
+      </c>
+      <c r="B13">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="A15" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.65">
-      <c r="A13">
-        <v>4445556666</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.65">
-      <c r="A15" s="2">
-        <v>44946</v>
+      <c r="B15">
+        <v>5432</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.65">
-      <c r="A16" s="2">
-        <v>44941</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.65">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>5678</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.65">
       <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <v>9876</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="A18" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.65">
-      <c r="A18" s="2">
-        <v>44990</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.65">
-      <c r="A19" s="2">
-        <v>44985</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.65">
-      <c r="A21" t="s">
+      <c r="B18">
+        <v>4444</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="A19" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.65">
-      <c r="A22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.65">
-      <c r="A23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.65">
-      <c r="A24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.65">
-      <c r="A25" t="s">
-        <v>15</v>
+      <c r="B19">
+        <v>1111</v>
       </c>
     </row>
   </sheetData>

--- a/excel-flash-fill-demo-start.xlsx
+++ b/excel-flash-fill-demo-start.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\blog-files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D43D7B-B35D-4680-BD58-87B6DE83AA4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6264F940-A337-42E7-9F2C-655CD58332FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{3A91FA8E-DBBB-4DDD-AE08-86B6284E8F36}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{3A91FA8E-DBBB-4DDD-AE08-86B6284E8F36}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>John Doe</t>
   </si>
@@ -72,21 +72,6 @@
   </si>
   <si>
     <t>4444 3333 2222 1111</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Jane</t>
-  </si>
-  <si>
-    <t>Alex</t>
-  </si>
-  <si>
-    <t>Mary</t>
-  </si>
-  <si>
-    <t>Michael</t>
   </si>
 </sst>
 </file>
@@ -472,7 +457,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
@@ -493,81 +478,51 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.65">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.65">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.65">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.65">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.65">
       <c r="A9" s="2">
         <v>44946</v>
       </c>
-      <c r="B9">
-        <v>2023</v>
-      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.65">
       <c r="A10" s="2">
         <v>44576</v>
       </c>
-      <c r="B10">
-        <v>2022</v>
-      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.65">
       <c r="A11" s="2">
         <v>44625</v>
       </c>
-      <c r="B11">
-        <v>2022</v>
-      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.65">
       <c r="A12" s="2">
         <v>44985</v>
       </c>
-      <c r="B12">
-        <v>2023</v>
-      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.65">
       <c r="A13" s="2">
         <v>44365</v>
       </c>
-      <c r="B13">
-        <v>2021</v>
-      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.65">
       <c r="A14" s="2"/>
@@ -576,40 +531,25 @@
       <c r="A15" t="s">
         <v>7</v>
       </c>
-      <c r="B15">
-        <v>5432</v>
-      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.65">
       <c r="A16" t="s">
         <v>8</v>
       </c>
-      <c r="B16">
-        <v>5678</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.65">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.65">
       <c r="A17" t="s">
         <v>9</v>
       </c>
-      <c r="B17">
-        <v>9876</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.65">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.65">
       <c r="A18" t="s">
         <v>10</v>
       </c>
-      <c r="B18">
-        <v>4444</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.65">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.65">
       <c r="A19" t="s">
         <v>11</v>
-      </c>
-      <c r="B19">
-        <v>1111</v>
       </c>
     </row>
   </sheetData>
